--- a/sg02/Assets/Resources/Config/Excel/Animations.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Animations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="1453">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4376,6 +4376,15 @@
   </si>
   <si>
     <t>Assets\Resources\Animations\SOL2LO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Resources\Animations\SOL2WI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Resources\Animations\REW4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4792,10 +4801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1451"/>
+  <dimension ref="A1:C1453"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1411" workbookViewId="0">
-      <selection activeCell="E1440" sqref="E1440"/>
+      <selection activeCell="F1453" sqref="F1453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14224,7 +14233,7 @@
         <v>854</v>
       </c>
       <c r="B857" t="s">
-        <v>862</v>
+        <v>1452</v>
       </c>
       <c r="C857">
         <v>1</v>
@@ -14235,7 +14244,7 @@
         <v>855</v>
       </c>
       <c r="B858" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C858">
         <v>1</v>
@@ -14246,7 +14255,7 @@
         <v>856</v>
       </c>
       <c r="B859" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C859">
         <v>1</v>
@@ -14257,7 +14266,7 @@
         <v>857</v>
       </c>
       <c r="B860" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C860">
         <v>1</v>
@@ -14268,7 +14277,7 @@
         <v>858</v>
       </c>
       <c r="B861" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C861">
         <v>1</v>
@@ -14279,7 +14288,7 @@
         <v>859</v>
       </c>
       <c r="B862" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C862">
         <v>1</v>
@@ -14290,7 +14299,7 @@
         <v>860</v>
       </c>
       <c r="B863" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C863">
         <v>1</v>
@@ -14301,7 +14310,7 @@
         <v>861</v>
       </c>
       <c r="B864" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C864">
         <v>1</v>
@@ -14312,7 +14321,7 @@
         <v>862</v>
       </c>
       <c r="B865" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C865">
         <v>1</v>
@@ -14323,7 +14332,7 @@
         <v>863</v>
       </c>
       <c r="B866" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C866">
         <v>1</v>
@@ -14334,7 +14343,7 @@
         <v>864</v>
       </c>
       <c r="B867" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C867">
         <v>1</v>
@@ -14345,7 +14354,7 @@
         <v>865</v>
       </c>
       <c r="B868" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C868">
         <v>1</v>
@@ -14356,7 +14365,7 @@
         <v>866</v>
       </c>
       <c r="B869" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C869">
         <v>1</v>
@@ -14367,7 +14376,7 @@
         <v>867</v>
       </c>
       <c r="B870" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C870">
         <v>1</v>
@@ -14378,7 +14387,7 @@
         <v>868</v>
       </c>
       <c r="B871" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C871">
         <v>1</v>
@@ -14389,7 +14398,7 @@
         <v>869</v>
       </c>
       <c r="B872" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C872">
         <v>1</v>
@@ -14400,7 +14409,7 @@
         <v>870</v>
       </c>
       <c r="B873" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C873">
         <v>1</v>
@@ -14411,7 +14420,7 @@
         <v>871</v>
       </c>
       <c r="B874" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C874">
         <v>1</v>
@@ -14422,7 +14431,7 @@
         <v>872</v>
       </c>
       <c r="B875" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C875">
         <v>1</v>
@@ -14433,7 +14442,7 @@
         <v>873</v>
       </c>
       <c r="B876" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C876">
         <v>1</v>
@@ -14444,7 +14453,7 @@
         <v>874</v>
       </c>
       <c r="B877" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C877">
         <v>1</v>
@@ -14455,7 +14464,7 @@
         <v>875</v>
       </c>
       <c r="B878" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C878">
         <v>1</v>
@@ -14466,7 +14475,7 @@
         <v>876</v>
       </c>
       <c r="B879" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C879">
         <v>1</v>
@@ -14477,7 +14486,7 @@
         <v>877</v>
       </c>
       <c r="B880" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C880">
         <v>1</v>
@@ -14488,7 +14497,7 @@
         <v>878</v>
       </c>
       <c r="B881" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C881">
         <v>1</v>
@@ -14499,7 +14508,7 @@
         <v>879</v>
       </c>
       <c r="B882" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C882">
         <v>1</v>
@@ -14510,7 +14519,7 @@
         <v>880</v>
       </c>
       <c r="B883" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C883">
         <v>1</v>
@@ -14521,7 +14530,7 @@
         <v>881</v>
       </c>
       <c r="B884" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C884">
         <v>1</v>
@@ -14532,7 +14541,7 @@
         <v>882</v>
       </c>
       <c r="B885" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C885">
         <v>1</v>
@@ -14543,7 +14552,7 @@
         <v>883</v>
       </c>
       <c r="B886" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C886">
         <v>1</v>
@@ -14554,7 +14563,7 @@
         <v>884</v>
       </c>
       <c r="B887" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C887">
         <v>1</v>
@@ -14565,7 +14574,7 @@
         <v>885</v>
       </c>
       <c r="B888" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C888">
         <v>1</v>
@@ -14576,7 +14585,7 @@
         <v>886</v>
       </c>
       <c r="B889" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C889">
         <v>1</v>
@@ -14587,7 +14596,7 @@
         <v>887</v>
       </c>
       <c r="B890" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C890">
         <v>1</v>
@@ -14598,7 +14607,7 @@
         <v>888</v>
       </c>
       <c r="B891" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C891">
         <v>1</v>
@@ -14609,7 +14618,7 @@
         <v>889</v>
       </c>
       <c r="B892" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C892">
         <v>1</v>
@@ -14620,7 +14629,7 @@
         <v>890</v>
       </c>
       <c r="B893" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C893">
         <v>1</v>
@@ -14631,7 +14640,7 @@
         <v>891</v>
       </c>
       <c r="B894" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C894">
         <v>1</v>
@@ -14642,7 +14651,7 @@
         <v>892</v>
       </c>
       <c r="B895" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C895">
         <v>1</v>
@@ -14653,7 +14662,7 @@
         <v>893</v>
       </c>
       <c r="B896" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C896">
         <v>1</v>
@@ -14664,7 +14673,7 @@
         <v>894</v>
       </c>
       <c r="B897" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C897">
         <v>1</v>
@@ -14675,7 +14684,7 @@
         <v>895</v>
       </c>
       <c r="B898" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C898">
         <v>1</v>
@@ -14686,7 +14695,7 @@
         <v>896</v>
       </c>
       <c r="B899" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C899">
         <v>1</v>
@@ -14697,7 +14706,7 @@
         <v>897</v>
       </c>
       <c r="B900" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C900">
         <v>1</v>
@@ -14708,7 +14717,7 @@
         <v>898</v>
       </c>
       <c r="B901" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C901">
         <v>1</v>
@@ -14719,7 +14728,7 @@
         <v>899</v>
       </c>
       <c r="B902" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C902">
         <v>1</v>
@@ -14730,7 +14739,7 @@
         <v>900</v>
       </c>
       <c r="B903" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C903">
         <v>1</v>
@@ -14741,7 +14750,7 @@
         <v>901</v>
       </c>
       <c r="B904" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C904">
         <v>1</v>
@@ -14752,7 +14761,7 @@
         <v>902</v>
       </c>
       <c r="B905" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C905">
         <v>1</v>
@@ -14763,7 +14772,7 @@
         <v>903</v>
       </c>
       <c r="B906" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C906">
         <v>1</v>
@@ -14774,7 +14783,7 @@
         <v>904</v>
       </c>
       <c r="B907" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C907">
         <v>1</v>
@@ -14785,7 +14794,7 @@
         <v>905</v>
       </c>
       <c r="B908" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C908">
         <v>1</v>
@@ -14796,7 +14805,7 @@
         <v>906</v>
       </c>
       <c r="B909" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C909">
         <v>1</v>
@@ -14807,7 +14816,7 @@
         <v>907</v>
       </c>
       <c r="B910" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C910">
         <v>1</v>
@@ -14818,7 +14827,7 @@
         <v>908</v>
       </c>
       <c r="B911" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C911">
         <v>1</v>
@@ -14829,7 +14838,7 @@
         <v>909</v>
       </c>
       <c r="B912" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C912">
         <v>1</v>
@@ -14840,7 +14849,7 @@
         <v>910</v>
       </c>
       <c r="B913" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C913">
         <v>1</v>
@@ -14851,7 +14860,7 @@
         <v>911</v>
       </c>
       <c r="B914" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C914">
         <v>1</v>
@@ -14862,7 +14871,7 @@
         <v>912</v>
       </c>
       <c r="B915" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C915">
         <v>1</v>
@@ -14873,7 +14882,7 @@
         <v>913</v>
       </c>
       <c r="B916" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C916">
         <v>1</v>
@@ -14884,7 +14893,7 @@
         <v>914</v>
       </c>
       <c r="B917" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C917">
         <v>1</v>
@@ -14895,7 +14904,7 @@
         <v>915</v>
       </c>
       <c r="B918" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C918">
         <v>1</v>
@@ -14906,7 +14915,7 @@
         <v>916</v>
       </c>
       <c r="B919" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C919">
         <v>1</v>
@@ -14917,7 +14926,7 @@
         <v>917</v>
       </c>
       <c r="B920" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C920">
         <v>1</v>
@@ -14928,7 +14937,7 @@
         <v>918</v>
       </c>
       <c r="B921" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C921">
         <v>1</v>
@@ -14939,7 +14948,7 @@
         <v>919</v>
       </c>
       <c r="B922" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C922">
         <v>1</v>
@@ -14950,7 +14959,7 @@
         <v>920</v>
       </c>
       <c r="B923" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C923">
         <v>1</v>
@@ -14961,7 +14970,7 @@
         <v>921</v>
       </c>
       <c r="B924" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C924">
         <v>1</v>
@@ -14972,7 +14981,7 @@
         <v>922</v>
       </c>
       <c r="B925" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C925">
         <v>1</v>
@@ -14983,7 +14992,7 @@
         <v>923</v>
       </c>
       <c r="B926" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C926">
         <v>1</v>
@@ -14994,7 +15003,7 @@
         <v>924</v>
       </c>
       <c r="B927" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C927">
         <v>1</v>
@@ -15005,7 +15014,7 @@
         <v>925</v>
       </c>
       <c r="B928" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C928">
         <v>1</v>
@@ -15016,7 +15025,7 @@
         <v>926</v>
       </c>
       <c r="B929" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C929">
         <v>1</v>
@@ -15027,7 +15036,7 @@
         <v>927</v>
       </c>
       <c r="B930" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C930">
         <v>1</v>
@@ -15038,7 +15047,7 @@
         <v>928</v>
       </c>
       <c r="B931" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C931">
         <v>1</v>
@@ -15049,7 +15058,7 @@
         <v>929</v>
       </c>
       <c r="B932" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C932">
         <v>1</v>
@@ -15060,7 +15069,7 @@
         <v>930</v>
       </c>
       <c r="B933" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C933">
         <v>1</v>
@@ -15071,7 +15080,7 @@
         <v>931</v>
       </c>
       <c r="B934" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C934">
         <v>1</v>
@@ -15082,7 +15091,7 @@
         <v>932</v>
       </c>
       <c r="B935" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C935">
         <v>1</v>
@@ -15093,7 +15102,7 @@
         <v>933</v>
       </c>
       <c r="B936" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C936">
         <v>1</v>
@@ -15104,7 +15113,7 @@
         <v>934</v>
       </c>
       <c r="B937" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C937">
         <v>1</v>
@@ -15115,7 +15124,7 @@
         <v>935</v>
       </c>
       <c r="B938" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C938">
         <v>1</v>
@@ -15126,7 +15135,7 @@
         <v>936</v>
       </c>
       <c r="B939" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C939">
         <v>1</v>
@@ -15137,7 +15146,7 @@
         <v>937</v>
       </c>
       <c r="B940" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C940">
         <v>1</v>
@@ -15148,7 +15157,7 @@
         <v>938</v>
       </c>
       <c r="B941" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C941">
         <v>1</v>
@@ -15159,7 +15168,7 @@
         <v>939</v>
       </c>
       <c r="B942" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C942">
         <v>1</v>
@@ -15170,7 +15179,7 @@
         <v>940</v>
       </c>
       <c r="B943" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C943">
         <v>1</v>
@@ -15181,7 +15190,7 @@
         <v>941</v>
       </c>
       <c r="B944" t="s">
-        <v>862</v>
+        <v>948</v>
       </c>
       <c r="C944">
         <v>1</v>
@@ -15192,7 +15201,7 @@
         <v>942</v>
       </c>
       <c r="B945" t="s">
-        <v>949</v>
+        <v>862</v>
       </c>
       <c r="C945">
         <v>1</v>
@@ -15203,7 +15212,7 @@
         <v>943</v>
       </c>
       <c r="B946" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C946">
         <v>1</v>
@@ -15214,7 +15223,7 @@
         <v>944</v>
       </c>
       <c r="B947" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C947">
         <v>1</v>
@@ -15225,7 +15234,7 @@
         <v>945</v>
       </c>
       <c r="B948" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C948">
         <v>1</v>
@@ -15236,7 +15245,7 @@
         <v>946</v>
       </c>
       <c r="B949" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C949">
         <v>1</v>
@@ -15247,7 +15256,7 @@
         <v>947</v>
       </c>
       <c r="B950" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C950">
         <v>1</v>
@@ -15258,7 +15267,7 @@
         <v>948</v>
       </c>
       <c r="B951" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C951">
         <v>1</v>
@@ -15269,7 +15278,7 @@
         <v>949</v>
       </c>
       <c r="B952" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C952">
         <v>1</v>
@@ -15280,7 +15289,7 @@
         <v>950</v>
       </c>
       <c r="B953" t="s">
-        <v>863</v>
+        <v>956</v>
       </c>
       <c r="C953">
         <v>1</v>
@@ -15291,7 +15300,7 @@
         <v>951</v>
       </c>
       <c r="B954" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C954">
         <v>1</v>
@@ -15302,7 +15311,7 @@
         <v>952</v>
       </c>
       <c r="B955" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C955">
         <v>1</v>
@@ -15313,7 +15322,7 @@
         <v>953</v>
       </c>
       <c r="B956" t="s">
-        <v>957</v>
+        <v>865</v>
       </c>
       <c r="C956">
         <v>1</v>
@@ -15324,7 +15333,7 @@
         <v>954</v>
       </c>
       <c r="B957" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C957">
         <v>1</v>
@@ -15335,7 +15344,7 @@
         <v>955</v>
       </c>
       <c r="B958" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C958">
         <v>1</v>
@@ -15346,7 +15355,7 @@
         <v>956</v>
       </c>
       <c r="B959" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C959">
         <v>1</v>
@@ -15357,7 +15366,7 @@
         <v>957</v>
       </c>
       <c r="B960" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C960">
         <v>1</v>
@@ -15368,7 +15377,7 @@
         <v>958</v>
       </c>
       <c r="B961" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C961">
         <v>1</v>
@@ -15379,7 +15388,7 @@
         <v>959</v>
       </c>
       <c r="B962" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C962">
         <v>1</v>
@@ -15390,7 +15399,7 @@
         <v>960</v>
       </c>
       <c r="B963" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C963">
         <v>1</v>
@@ -15401,7 +15410,7 @@
         <v>961</v>
       </c>
       <c r="B964" t="s">
-        <v>866</v>
+        <v>964</v>
       </c>
       <c r="C964">
         <v>1</v>
@@ -15412,7 +15421,7 @@
         <v>962</v>
       </c>
       <c r="B965" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C965">
         <v>1</v>
@@ -15423,7 +15432,7 @@
         <v>963</v>
       </c>
       <c r="B966" t="s">
-        <v>965</v>
+        <v>867</v>
       </c>
       <c r="C966">
         <v>1</v>
@@ -15434,7 +15443,7 @@
         <v>964</v>
       </c>
       <c r="B967" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C967">
         <v>1</v>
@@ -15445,7 +15454,7 @@
         <v>965</v>
       </c>
       <c r="B968" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C968">
         <v>1</v>
@@ -15456,7 +15465,7 @@
         <v>966</v>
       </c>
       <c r="B969" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C969">
         <v>1</v>
@@ -15467,7 +15476,7 @@
         <v>967</v>
       </c>
       <c r="B970" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C970">
         <v>1</v>
@@ -15478,7 +15487,7 @@
         <v>968</v>
       </c>
       <c r="B971" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C971">
         <v>1</v>
@@ -15489,7 +15498,7 @@
         <v>969</v>
       </c>
       <c r="B972" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C972">
         <v>1</v>
@@ -15500,7 +15509,7 @@
         <v>970</v>
       </c>
       <c r="B973" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C973">
         <v>1</v>
@@ -15511,7 +15520,7 @@
         <v>971</v>
       </c>
       <c r="B974" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C974">
         <v>1</v>
@@ -15522,7 +15531,7 @@
         <v>972</v>
       </c>
       <c r="B975" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C975">
         <v>1</v>
@@ -15533,7 +15542,7 @@
         <v>973</v>
       </c>
       <c r="B976" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C976">
         <v>1</v>
@@ -15544,7 +15553,7 @@
         <v>974</v>
       </c>
       <c r="B977" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C977">
         <v>1</v>
@@ -15555,7 +15564,7 @@
         <v>975</v>
       </c>
       <c r="B978" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C978">
         <v>1</v>
@@ -15566,7 +15575,7 @@
         <v>976</v>
       </c>
       <c r="B979" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C979">
         <v>1</v>
@@ -15577,7 +15586,7 @@
         <v>977</v>
       </c>
       <c r="B980" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C980">
         <v>1</v>
@@ -15588,7 +15597,7 @@
         <v>978</v>
       </c>
       <c r="B981" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C981">
         <v>1</v>
@@ -15599,7 +15608,7 @@
         <v>979</v>
       </c>
       <c r="B982" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C982">
         <v>1</v>
@@ -15610,7 +15619,7 @@
         <v>980</v>
       </c>
       <c r="B983" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C983">
         <v>1</v>
@@ -15621,7 +15630,7 @@
         <v>981</v>
       </c>
       <c r="B984" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C984">
         <v>1</v>
@@ -15632,7 +15641,7 @@
         <v>982</v>
       </c>
       <c r="B985" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C985">
         <v>1</v>
@@ -15643,7 +15652,7 @@
         <v>983</v>
       </c>
       <c r="B986" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C986">
         <v>1</v>
@@ -15654,7 +15663,7 @@
         <v>984</v>
       </c>
       <c r="B987" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C987">
         <v>1</v>
@@ -15665,7 +15674,7 @@
         <v>985</v>
       </c>
       <c r="B988" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C988">
         <v>1</v>
@@ -15676,7 +15685,7 @@
         <v>986</v>
       </c>
       <c r="B989" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C989">
         <v>1</v>
@@ -15687,7 +15696,7 @@
         <v>987</v>
       </c>
       <c r="B990" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C990">
         <v>1</v>
@@ -15698,7 +15707,7 @@
         <v>988</v>
       </c>
       <c r="B991" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C991">
         <v>1</v>
@@ -15709,7 +15718,7 @@
         <v>989</v>
       </c>
       <c r="B992" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C992">
         <v>1</v>
@@ -15720,7 +15729,7 @@
         <v>990</v>
       </c>
       <c r="B993" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C993">
         <v>1</v>
@@ -15731,7 +15740,7 @@
         <v>991</v>
       </c>
       <c r="B994" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C994">
         <v>1</v>
@@ -15742,7 +15751,7 @@
         <v>992</v>
       </c>
       <c r="B995" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C995">
         <v>1</v>
@@ -15753,7 +15762,7 @@
         <v>993</v>
       </c>
       <c r="B996" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C996">
         <v>1</v>
@@ -15764,7 +15773,7 @@
         <v>994</v>
       </c>
       <c r="B997" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C997">
         <v>1</v>
@@ -15775,7 +15784,7 @@
         <v>995</v>
       </c>
       <c r="B998" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C998">
         <v>1</v>
@@ -15786,7 +15795,7 @@
         <v>996</v>
       </c>
       <c r="B999" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C999">
         <v>1</v>
@@ -15797,7 +15806,7 @@
         <v>997</v>
       </c>
       <c r="B1000" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C1000">
         <v>1</v>
@@ -15808,7 +15817,7 @@
         <v>998</v>
       </c>
       <c r="B1001" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C1001">
         <v>1</v>
@@ -15819,7 +15828,7 @@
         <v>999</v>
       </c>
       <c r="B1002" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C1002">
         <v>1</v>
@@ -15830,7 +15839,7 @@
         <v>1000</v>
       </c>
       <c r="B1003" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C1003">
         <v>1</v>
@@ -15841,7 +15850,7 @@
         <v>1001</v>
       </c>
       <c r="B1004" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C1004">
         <v>1</v>
@@ -15852,7 +15861,7 @@
         <v>1002</v>
       </c>
       <c r="B1005" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C1005">
         <v>1</v>
@@ -15863,7 +15872,7 @@
         <v>1003</v>
       </c>
       <c r="B1006" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C1006">
         <v>1</v>
@@ -15874,7 +15883,7 @@
         <v>1004</v>
       </c>
       <c r="B1007" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C1007">
         <v>1</v>
@@ -15885,7 +15894,7 @@
         <v>1005</v>
       </c>
       <c r="B1008" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C1008">
         <v>1</v>
@@ -15896,7 +15905,7 @@
         <v>1006</v>
       </c>
       <c r="B1009" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C1009">
         <v>1</v>
@@ -15907,7 +15916,7 @@
         <v>1007</v>
       </c>
       <c r="B1010" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C1010">
         <v>1</v>
@@ -15918,7 +15927,7 @@
         <v>1008</v>
       </c>
       <c r="B1011" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C1011">
         <v>1</v>
@@ -15929,7 +15938,7 @@
         <v>1009</v>
       </c>
       <c r="B1012" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C1012">
         <v>1</v>
@@ -15940,7 +15949,7 @@
         <v>1010</v>
       </c>
       <c r="B1013" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C1013">
         <v>1</v>
@@ -15951,7 +15960,7 @@
         <v>1011</v>
       </c>
       <c r="B1014" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C1014">
         <v>1</v>
@@ -15962,7 +15971,7 @@
         <v>1012</v>
       </c>
       <c r="B1015" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C1015">
         <v>1</v>
@@ -15973,7 +15982,7 @@
         <v>1013</v>
       </c>
       <c r="B1016" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C1016">
         <v>1</v>
@@ -15984,7 +15993,7 @@
         <v>1014</v>
       </c>
       <c r="B1017" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C1017">
         <v>1</v>
@@ -15995,7 +16004,7 @@
         <v>1015</v>
       </c>
       <c r="B1018" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C1018">
         <v>1</v>
@@ -16006,7 +16015,7 @@
         <v>1016</v>
       </c>
       <c r="B1019" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C1019">
         <v>1</v>
@@ -16017,7 +16026,7 @@
         <v>1017</v>
       </c>
       <c r="B1020" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C1020">
         <v>1</v>
@@ -16028,7 +16037,7 @@
         <v>1018</v>
       </c>
       <c r="B1021" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C1021">
         <v>1</v>
@@ -16039,7 +16048,7 @@
         <v>1019</v>
       </c>
       <c r="B1022" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C1022">
         <v>1</v>
@@ -16050,7 +16059,7 @@
         <v>1020</v>
       </c>
       <c r="B1023" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C1023">
         <v>1</v>
@@ -16061,7 +16070,7 @@
         <v>1021</v>
       </c>
       <c r="B1024" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C1024">
         <v>1</v>
@@ -16072,7 +16081,7 @@
         <v>1022</v>
       </c>
       <c r="B1025" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C1025">
         <v>1</v>
@@ -16083,7 +16092,7 @@
         <v>1023</v>
       </c>
       <c r="B1026" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C1026">
         <v>1</v>
@@ -16094,7 +16103,7 @@
         <v>1024</v>
       </c>
       <c r="B1027" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C1027">
         <v>1</v>
@@ -16105,7 +16114,7 @@
         <v>1025</v>
       </c>
       <c r="B1028" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C1028">
         <v>1</v>
@@ -16116,7 +16125,7 @@
         <v>1026</v>
       </c>
       <c r="B1029" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C1029">
         <v>1</v>
@@ -16127,7 +16136,7 @@
         <v>1027</v>
       </c>
       <c r="B1030" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C1030">
         <v>1</v>
@@ -16138,7 +16147,7 @@
         <v>1028</v>
       </c>
       <c r="B1031" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C1031">
         <v>1</v>
@@ -16149,7 +16158,7 @@
         <v>1029</v>
       </c>
       <c r="B1032" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C1032">
         <v>1</v>
@@ -16160,7 +16169,7 @@
         <v>1030</v>
       </c>
       <c r="B1033" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C1033">
         <v>1</v>
@@ -16171,7 +16180,7 @@
         <v>1031</v>
       </c>
       <c r="B1034" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C1034">
         <v>1</v>
@@ -16182,7 +16191,7 @@
         <v>1032</v>
       </c>
       <c r="B1035" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C1035">
         <v>1</v>
@@ -16193,7 +16202,7 @@
         <v>1033</v>
       </c>
       <c r="B1036" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C1036">
         <v>1</v>
@@ -16204,7 +16213,7 @@
         <v>1034</v>
       </c>
       <c r="B1037" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C1037">
         <v>1</v>
@@ -16215,7 +16224,7 @@
         <v>1035</v>
       </c>
       <c r="B1038" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C1038">
         <v>1</v>
@@ -16226,7 +16235,7 @@
         <v>1036</v>
       </c>
       <c r="B1039" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C1039">
         <v>1</v>
@@ -16237,7 +16246,7 @@
         <v>1037</v>
       </c>
       <c r="B1040" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C1040">
         <v>1</v>
@@ -16248,7 +16257,7 @@
         <v>1038</v>
       </c>
       <c r="B1041" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C1041">
         <v>1</v>
@@ -16259,7 +16268,7 @@
         <v>1039</v>
       </c>
       <c r="B1042" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C1042">
         <v>1</v>
@@ -16270,7 +16279,7 @@
         <v>1040</v>
       </c>
       <c r="B1043" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C1043">
         <v>1</v>
@@ -16281,7 +16290,7 @@
         <v>1041</v>
       </c>
       <c r="B1044" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C1044">
         <v>1</v>
@@ -16292,7 +16301,7 @@
         <v>1042</v>
       </c>
       <c r="B1045" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C1045">
         <v>1</v>
@@ -16303,7 +16312,7 @@
         <v>1043</v>
       </c>
       <c r="B1046" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C1046">
         <v>1</v>
@@ -16314,7 +16323,7 @@
         <v>1044</v>
       </c>
       <c r="B1047" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C1047">
         <v>1</v>
@@ -16325,7 +16334,7 @@
         <v>1045</v>
       </c>
       <c r="B1048" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C1048">
         <v>1</v>
@@ -16336,7 +16345,7 @@
         <v>1046</v>
       </c>
       <c r="B1049" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C1049">
         <v>1</v>
@@ -16347,7 +16356,7 @@
         <v>1047</v>
       </c>
       <c r="B1050" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1050">
         <v>1</v>
@@ -16358,7 +16367,7 @@
         <v>1048</v>
       </c>
       <c r="B1051" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C1051">
         <v>1</v>
@@ -16369,7 +16378,7 @@
         <v>1049</v>
       </c>
       <c r="B1052" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C1052">
         <v>1</v>
@@ -16380,7 +16389,7 @@
         <v>1050</v>
       </c>
       <c r="B1053" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C1053">
         <v>1</v>
@@ -16391,7 +16400,7 @@
         <v>1051</v>
       </c>
       <c r="B1054" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C1054">
         <v>1</v>
@@ -16402,7 +16411,7 @@
         <v>1052</v>
       </c>
       <c r="B1055" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C1055">
         <v>1</v>
@@ -16413,7 +16422,7 @@
         <v>1053</v>
       </c>
       <c r="B1056" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C1056">
         <v>1</v>
@@ -16424,7 +16433,7 @@
         <v>1054</v>
       </c>
       <c r="B1057" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C1057">
         <v>1</v>
@@ -16435,7 +16444,7 @@
         <v>1055</v>
       </c>
       <c r="B1058" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C1058">
         <v>1</v>
@@ -16446,7 +16455,7 @@
         <v>1056</v>
       </c>
       <c r="B1059" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C1059">
         <v>1</v>
@@ -16457,7 +16466,7 @@
         <v>1057</v>
       </c>
       <c r="B1060" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C1060">
         <v>1</v>
@@ -16468,7 +16477,7 @@
         <v>1058</v>
       </c>
       <c r="B1061" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C1061">
         <v>1</v>
@@ -16479,7 +16488,7 @@
         <v>1059</v>
       </c>
       <c r="B1062" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C1062">
         <v>1</v>
@@ -16490,7 +16499,7 @@
         <v>1060</v>
       </c>
       <c r="B1063" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C1063">
         <v>1</v>
@@ -16501,7 +16510,7 @@
         <v>1061</v>
       </c>
       <c r="B1064" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C1064">
         <v>1</v>
@@ -16512,7 +16521,7 @@
         <v>1062</v>
       </c>
       <c r="B1065" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C1065">
         <v>1</v>
@@ -16523,7 +16532,7 @@
         <v>1063</v>
       </c>
       <c r="B1066" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C1066">
         <v>1</v>
@@ -16534,7 +16543,7 @@
         <v>1064</v>
       </c>
       <c r="B1067" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C1067">
         <v>1</v>
@@ -16545,7 +16554,7 @@
         <v>1065</v>
       </c>
       <c r="B1068" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C1068">
         <v>1</v>
@@ -16556,7 +16565,7 @@
         <v>1066</v>
       </c>
       <c r="B1069" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C1069">
         <v>1</v>
@@ -16567,7 +16576,7 @@
         <v>1067</v>
       </c>
       <c r="B1070" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C1070">
         <v>1</v>
@@ -16578,7 +16587,7 @@
         <v>1068</v>
       </c>
       <c r="B1071" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C1071">
         <v>1</v>
@@ -16589,7 +16598,7 @@
         <v>1069</v>
       </c>
       <c r="B1072" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C1072">
         <v>1</v>
@@ -16600,7 +16609,7 @@
         <v>1070</v>
       </c>
       <c r="B1073" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C1073">
         <v>1</v>
@@ -16611,7 +16620,7 @@
         <v>1071</v>
       </c>
       <c r="B1074" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1074">
         <v>1</v>
@@ -16622,7 +16631,7 @@
         <v>1072</v>
       </c>
       <c r="B1075" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1075">
         <v>1</v>
@@ -16633,7 +16642,7 @@
         <v>1073</v>
       </c>
       <c r="B1076" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1076">
         <v>1</v>
@@ -16644,7 +16653,7 @@
         <v>1074</v>
       </c>
       <c r="B1077" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C1077">
         <v>1</v>
@@ -16655,7 +16664,7 @@
         <v>1075</v>
       </c>
       <c r="B1078" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C1078">
         <v>1</v>
@@ -16666,7 +16675,7 @@
         <v>1076</v>
       </c>
       <c r="B1079" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C1079">
         <v>1</v>
@@ -16677,7 +16686,7 @@
         <v>1077</v>
       </c>
       <c r="B1080" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C1080">
         <v>1</v>
@@ -16688,7 +16697,7 @@
         <v>1078</v>
       </c>
       <c r="B1081" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C1081">
         <v>1</v>
@@ -16699,7 +16708,7 @@
         <v>1079</v>
       </c>
       <c r="B1082" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C1082">
         <v>1</v>
@@ -16710,7 +16719,7 @@
         <v>1080</v>
       </c>
       <c r="B1083" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1083">
         <v>1</v>
@@ -16721,7 +16730,7 @@
         <v>1081</v>
       </c>
       <c r="B1084" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1084">
         <v>1</v>
@@ -16732,7 +16741,7 @@
         <v>1082</v>
       </c>
       <c r="B1085" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1085">
         <v>1</v>
@@ -16743,7 +16752,7 @@
         <v>1083</v>
       </c>
       <c r="B1086" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1086">
         <v>1</v>
@@ -16754,7 +16763,7 @@
         <v>1084</v>
       </c>
       <c r="B1087" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C1087">
         <v>1</v>
@@ -16765,7 +16774,7 @@
         <v>1085</v>
       </c>
       <c r="B1088" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C1088">
         <v>1</v>
@@ -16776,7 +16785,7 @@
         <v>1086</v>
       </c>
       <c r="B1089" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1089">
         <v>1</v>
@@ -16787,7 +16796,7 @@
         <v>1087</v>
       </c>
       <c r="B1090" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C1090">
         <v>1</v>
@@ -16798,7 +16807,7 @@
         <v>1088</v>
       </c>
       <c r="B1091" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C1091">
         <v>1</v>
@@ -16809,7 +16818,7 @@
         <v>1089</v>
       </c>
       <c r="B1092" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1092">
         <v>1</v>
@@ -16820,7 +16829,7 @@
         <v>1090</v>
       </c>
       <c r="B1093" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C1093">
         <v>1</v>
@@ -16831,7 +16840,7 @@
         <v>1091</v>
       </c>
       <c r="B1094" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C1094">
         <v>1</v>
@@ -16842,7 +16851,7 @@
         <v>1092</v>
       </c>
       <c r="B1095" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C1095">
         <v>1</v>
@@ -16853,7 +16862,7 @@
         <v>1093</v>
       </c>
       <c r="B1096" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C1096">
         <v>1</v>
@@ -16864,7 +16873,7 @@
         <v>1094</v>
       </c>
       <c r="B1097" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C1097">
         <v>1</v>
@@ -16875,7 +16884,7 @@
         <v>1095</v>
       </c>
       <c r="B1098" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C1098">
         <v>1</v>
@@ -16886,7 +16895,7 @@
         <v>1096</v>
       </c>
       <c r="B1099" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C1099">
         <v>1</v>
@@ -16897,7 +16906,7 @@
         <v>1097</v>
       </c>
       <c r="B1100" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C1100">
         <v>1</v>
@@ -16908,7 +16917,7 @@
         <v>1098</v>
       </c>
       <c r="B1101" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C1101">
         <v>1</v>
@@ -16919,7 +16928,7 @@
         <v>1099</v>
       </c>
       <c r="B1102" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C1102">
         <v>1</v>
@@ -16930,7 +16939,7 @@
         <v>1100</v>
       </c>
       <c r="B1103" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C1103">
         <v>1</v>
@@ -16941,7 +16950,7 @@
         <v>1101</v>
       </c>
       <c r="B1104" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C1104">
         <v>1</v>
@@ -16952,7 +16961,7 @@
         <v>1102</v>
       </c>
       <c r="B1105" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C1105">
         <v>1</v>
@@ -16963,7 +16972,7 @@
         <v>1103</v>
       </c>
       <c r="B1106" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C1106">
         <v>1</v>
@@ -16974,7 +16983,7 @@
         <v>1104</v>
       </c>
       <c r="B1107" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C1107">
         <v>1</v>
@@ -16985,7 +16994,7 @@
         <v>1105</v>
       </c>
       <c r="B1108" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C1108">
         <v>1</v>
@@ -16996,7 +17005,7 @@
         <v>1106</v>
       </c>
       <c r="B1109" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C1109">
         <v>1</v>
@@ -17007,7 +17016,7 @@
         <v>1107</v>
       </c>
       <c r="B1110" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C1110">
         <v>1</v>
@@ -17018,7 +17027,7 @@
         <v>1108</v>
       </c>
       <c r="B1111" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C1111">
         <v>1</v>
@@ -17029,7 +17038,7 @@
         <v>1109</v>
       </c>
       <c r="B1112" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C1112">
         <v>1</v>
@@ -17040,7 +17049,7 @@
         <v>1110</v>
       </c>
       <c r="B1113" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C1113">
         <v>1</v>
@@ -17051,7 +17060,7 @@
         <v>1111</v>
       </c>
       <c r="B1114" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C1114">
         <v>1</v>
@@ -17062,7 +17071,7 @@
         <v>1112</v>
       </c>
       <c r="B1115" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C1115">
         <v>1</v>
@@ -17073,7 +17082,7 @@
         <v>1113</v>
       </c>
       <c r="B1116" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C1116">
         <v>1</v>
@@ -17084,7 +17093,7 @@
         <v>1114</v>
       </c>
       <c r="B1117" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C1117">
         <v>1</v>
@@ -17095,7 +17104,7 @@
         <v>1115</v>
       </c>
       <c r="B1118" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C1118">
         <v>1</v>
@@ -17106,7 +17115,7 @@
         <v>1116</v>
       </c>
       <c r="B1119" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C1119">
         <v>1</v>
@@ -17117,7 +17126,7 @@
         <v>1117</v>
       </c>
       <c r="B1120" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C1120">
         <v>1</v>
@@ -17128,7 +17137,7 @@
         <v>1118</v>
       </c>
       <c r="B1121" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C1121">
         <v>1</v>
@@ -17139,7 +17148,7 @@
         <v>1119</v>
       </c>
       <c r="B1122" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C1122">
         <v>1</v>
@@ -17150,7 +17159,7 @@
         <v>1120</v>
       </c>
       <c r="B1123" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C1123">
         <v>1</v>
@@ -17161,7 +17170,7 @@
         <v>1121</v>
       </c>
       <c r="B1124" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C1124">
         <v>1</v>
@@ -17172,7 +17181,7 @@
         <v>1122</v>
       </c>
       <c r="B1125" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C1125">
         <v>1</v>
@@ -17183,7 +17192,7 @@
         <v>1123</v>
       </c>
       <c r="B1126" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C1126">
         <v>1</v>
@@ -17194,7 +17203,7 @@
         <v>1124</v>
       </c>
       <c r="B1127" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C1127">
         <v>1</v>
@@ -17205,7 +17214,7 @@
         <v>1125</v>
       </c>
       <c r="B1128" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C1128">
         <v>1</v>
@@ -17216,7 +17225,7 @@
         <v>1126</v>
       </c>
       <c r="B1129" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C1129">
         <v>1</v>
@@ -17227,7 +17236,7 @@
         <v>1127</v>
       </c>
       <c r="B1130" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C1130">
         <v>1</v>
@@ -17238,7 +17247,7 @@
         <v>1128</v>
       </c>
       <c r="B1131" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C1131">
         <v>1</v>
@@ -17249,7 +17258,7 @@
         <v>1129</v>
       </c>
       <c r="B1132" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C1132">
         <v>1</v>
@@ -17260,7 +17269,7 @@
         <v>1130</v>
       </c>
       <c r="B1133" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C1133">
         <v>1</v>
@@ -17271,7 +17280,7 @@
         <v>1131</v>
       </c>
       <c r="B1134" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C1134">
         <v>1</v>
@@ -17282,7 +17291,7 @@
         <v>1132</v>
       </c>
       <c r="B1135" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C1135">
         <v>1</v>
@@ -17293,7 +17302,7 @@
         <v>1133</v>
       </c>
       <c r="B1136" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C1136">
         <v>1</v>
@@ -17304,7 +17313,7 @@
         <v>1134</v>
       </c>
       <c r="B1137" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C1137">
         <v>1</v>
@@ -17315,7 +17324,7 @@
         <v>1135</v>
       </c>
       <c r="B1138" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C1138">
         <v>1</v>
@@ -17326,7 +17335,7 @@
         <v>1136</v>
       </c>
       <c r="B1139" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C1139">
         <v>1</v>
@@ -17337,7 +17346,7 @@
         <v>1137</v>
       </c>
       <c r="B1140" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C1140">
         <v>1</v>
@@ -17348,7 +17357,7 @@
         <v>1138</v>
       </c>
       <c r="B1141" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C1141">
         <v>1</v>
@@ -17359,7 +17368,7 @@
         <v>1139</v>
       </c>
       <c r="B1142" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C1142">
         <v>1</v>
@@ -17370,7 +17379,7 @@
         <v>1140</v>
       </c>
       <c r="B1143" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C1143">
         <v>1</v>
@@ -17381,7 +17390,7 @@
         <v>1141</v>
       </c>
       <c r="B1144" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C1144">
         <v>1</v>
@@ -17392,7 +17401,7 @@
         <v>1142</v>
       </c>
       <c r="B1145" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C1145">
         <v>1</v>
@@ -17403,7 +17412,7 @@
         <v>1143</v>
       </c>
       <c r="B1146" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C1146">
         <v>1</v>
@@ -17414,7 +17423,7 @@
         <v>1144</v>
       </c>
       <c r="B1147" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C1147">
         <v>1</v>
@@ -17425,7 +17434,7 @@
         <v>1145</v>
       </c>
       <c r="B1148" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C1148">
         <v>1</v>
@@ -17436,7 +17445,7 @@
         <v>1146</v>
       </c>
       <c r="B1149" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C1149">
         <v>1</v>
@@ -17447,7 +17456,7 @@
         <v>1147</v>
       </c>
       <c r="B1150" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C1150">
         <v>1</v>
@@ -17458,7 +17467,7 @@
         <v>1148</v>
       </c>
       <c r="B1151" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C1151">
         <v>1</v>
@@ -17469,7 +17478,7 @@
         <v>1149</v>
       </c>
       <c r="B1152" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C1152">
         <v>1</v>
@@ -17480,7 +17489,7 @@
         <v>1150</v>
       </c>
       <c r="B1153" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C1153">
         <v>1</v>
@@ -17491,7 +17500,7 @@
         <v>1151</v>
       </c>
       <c r="B1154" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C1154">
         <v>1</v>
@@ -17502,7 +17511,7 @@
         <v>1152</v>
       </c>
       <c r="B1155" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C1155">
         <v>1</v>
@@ -17513,7 +17522,7 @@
         <v>1153</v>
       </c>
       <c r="B1156" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C1156">
         <v>1</v>
@@ -17524,7 +17533,7 @@
         <v>1154</v>
       </c>
       <c r="B1157" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C1157">
         <v>1</v>
@@ -17535,7 +17544,7 @@
         <v>1155</v>
       </c>
       <c r="B1158" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C1158">
         <v>1</v>
@@ -17546,7 +17555,7 @@
         <v>1156</v>
       </c>
       <c r="B1159" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C1159">
         <v>1</v>
@@ -17557,7 +17566,7 @@
         <v>1157</v>
       </c>
       <c r="B1160" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C1160">
         <v>1</v>
@@ -17568,7 +17577,7 @@
         <v>1158</v>
       </c>
       <c r="B1161" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C1161">
         <v>1</v>
@@ -17579,7 +17588,7 @@
         <v>1159</v>
       </c>
       <c r="B1162" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C1162">
         <v>1</v>
@@ -17590,7 +17599,7 @@
         <v>1160</v>
       </c>
       <c r="B1163" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C1163">
         <v>1</v>
@@ -17601,7 +17610,7 @@
         <v>1161</v>
       </c>
       <c r="B1164" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C1164">
         <v>1</v>
@@ -17612,7 +17621,7 @@
         <v>1162</v>
       </c>
       <c r="B1165" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1165">
         <v>1</v>
@@ -17623,7 +17632,7 @@
         <v>1163</v>
       </c>
       <c r="B1166" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C1166">
         <v>1</v>
@@ -17634,7 +17643,7 @@
         <v>1164</v>
       </c>
       <c r="B1167" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C1167">
         <v>1</v>
@@ -17645,7 +17654,7 @@
         <v>1165</v>
       </c>
       <c r="B1168" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C1168">
         <v>1</v>
@@ -17656,7 +17665,7 @@
         <v>1166</v>
       </c>
       <c r="B1169" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1169">
         <v>1</v>
@@ -17667,7 +17676,7 @@
         <v>1167</v>
       </c>
       <c r="B1170" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C1170">
         <v>1</v>
@@ -17678,7 +17687,7 @@
         <v>1168</v>
       </c>
       <c r="B1171" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C1171">
         <v>1</v>
@@ -17689,7 +17698,7 @@
         <v>1169</v>
       </c>
       <c r="B1172" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C1172">
         <v>1</v>
@@ -17700,7 +17709,7 @@
         <v>1170</v>
       </c>
       <c r="B1173" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1173">
         <v>1</v>
@@ -17711,7 +17720,7 @@
         <v>1171</v>
       </c>
       <c r="B1174" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1174">
         <v>1</v>
@@ -17722,7 +17731,7 @@
         <v>1172</v>
       </c>
       <c r="B1175" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1175">
         <v>1</v>
@@ -17733,7 +17742,7 @@
         <v>1173</v>
       </c>
       <c r="B1176" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1176">
         <v>1</v>
@@ -17744,7 +17753,7 @@
         <v>1174</v>
       </c>
       <c r="B1177" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C1177">
         <v>1</v>
@@ -17755,7 +17764,7 @@
         <v>1175</v>
       </c>
       <c r="B1178" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C1178">
         <v>1</v>
@@ -17766,7 +17775,7 @@
         <v>1176</v>
       </c>
       <c r="B1179" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C1179">
         <v>1</v>
@@ -17777,7 +17786,7 @@
         <v>1177</v>
       </c>
       <c r="B1180" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C1180">
         <v>1</v>
@@ -17788,7 +17797,7 @@
         <v>1178</v>
       </c>
       <c r="B1181" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C1181">
         <v>1</v>
@@ -17799,7 +17808,7 @@
         <v>1179</v>
       </c>
       <c r="B1182" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C1182">
         <v>1</v>
@@ -17810,7 +17819,7 @@
         <v>1180</v>
       </c>
       <c r="B1183" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C1183">
         <v>1</v>
@@ -17821,7 +17830,7 @@
         <v>1181</v>
       </c>
       <c r="B1184" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C1184">
         <v>1</v>
@@ -17832,7 +17841,7 @@
         <v>1182</v>
       </c>
       <c r="B1185" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C1185">
         <v>1</v>
@@ -17843,7 +17852,7 @@
         <v>1183</v>
       </c>
       <c r="B1186" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C1186">
         <v>1</v>
@@ -17854,7 +17863,7 @@
         <v>1184</v>
       </c>
       <c r="B1187" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C1187">
         <v>1</v>
@@ -17865,7 +17874,7 @@
         <v>1185</v>
       </c>
       <c r="B1188" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C1188">
         <v>1</v>
@@ -17876,7 +17885,7 @@
         <v>1186</v>
       </c>
       <c r="B1189" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C1189">
         <v>1</v>
@@ -17887,7 +17896,7 @@
         <v>1187</v>
       </c>
       <c r="B1190" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C1190">
         <v>1</v>
@@ -17898,7 +17907,7 @@
         <v>1188</v>
       </c>
       <c r="B1191" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C1191">
         <v>1</v>
@@ -17909,7 +17918,7 @@
         <v>1189</v>
       </c>
       <c r="B1192" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C1192">
         <v>1</v>
@@ -17920,7 +17929,7 @@
         <v>1190</v>
       </c>
       <c r="B1193" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C1193">
         <v>1</v>
@@ -17931,7 +17940,7 @@
         <v>1191</v>
       </c>
       <c r="B1194" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C1194">
         <v>1</v>
@@ -17942,7 +17951,7 @@
         <v>1192</v>
       </c>
       <c r="B1195" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C1195">
         <v>1</v>
@@ -17953,7 +17962,7 @@
         <v>1193</v>
       </c>
       <c r="B1196" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C1196">
         <v>1</v>
@@ -17964,7 +17973,7 @@
         <v>1194</v>
       </c>
       <c r="B1197" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C1197">
         <v>1</v>
@@ -17975,7 +17984,7 @@
         <v>1195</v>
       </c>
       <c r="B1198" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C1198">
         <v>1</v>
@@ -17986,7 +17995,7 @@
         <v>1196</v>
       </c>
       <c r="B1199" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C1199">
         <v>1</v>
@@ -17997,7 +18006,7 @@
         <v>1197</v>
       </c>
       <c r="B1200" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C1200">
         <v>1</v>
@@ -18008,7 +18017,7 @@
         <v>1198</v>
       </c>
       <c r="B1201" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C1201">
         <v>1</v>
@@ -18019,7 +18028,7 @@
         <v>1199</v>
       </c>
       <c r="B1202" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C1202">
         <v>1</v>
@@ -18030,7 +18039,7 @@
         <v>1200</v>
       </c>
       <c r="B1203" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C1203">
         <v>1</v>
@@ -18041,7 +18050,7 @@
         <v>1201</v>
       </c>
       <c r="B1204" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C1204">
         <v>1</v>
@@ -18052,7 +18061,7 @@
         <v>1202</v>
       </c>
       <c r="B1205" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C1205">
         <v>1</v>
@@ -18063,7 +18072,7 @@
         <v>1203</v>
       </c>
       <c r="B1206" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C1206">
         <v>1</v>
@@ -18074,7 +18083,7 @@
         <v>1204</v>
       </c>
       <c r="B1207" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C1207">
         <v>1</v>
@@ -18085,7 +18094,7 @@
         <v>1205</v>
       </c>
       <c r="B1208" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C1208">
         <v>1</v>
@@ -18096,7 +18105,7 @@
         <v>1206</v>
       </c>
       <c r="B1209" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C1209">
         <v>1</v>
@@ -18107,7 +18116,7 @@
         <v>1207</v>
       </c>
       <c r="B1210" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C1210">
         <v>1</v>
@@ -18118,7 +18127,7 @@
         <v>1208</v>
       </c>
       <c r="B1211" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C1211">
         <v>1</v>
@@ -18129,7 +18138,7 @@
         <v>1209</v>
       </c>
       <c r="B1212" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C1212">
         <v>1</v>
@@ -18140,7 +18149,7 @@
         <v>1210</v>
       </c>
       <c r="B1213" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C1213">
         <v>1</v>
@@ -18151,7 +18160,7 @@
         <v>1211</v>
       </c>
       <c r="B1214" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C1214">
         <v>1</v>
@@ -18162,7 +18171,7 @@
         <v>1212</v>
       </c>
       <c r="B1215" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C1215">
         <v>1</v>
@@ -18173,7 +18182,7 @@
         <v>1213</v>
       </c>
       <c r="B1216" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C1216">
         <v>1</v>
@@ -18184,7 +18193,7 @@
         <v>1214</v>
       </c>
       <c r="B1217" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C1217">
         <v>1</v>
@@ -18195,7 +18204,7 @@
         <v>1215</v>
       </c>
       <c r="B1218" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C1218">
         <v>1</v>
@@ -18206,7 +18215,7 @@
         <v>1216</v>
       </c>
       <c r="B1219" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C1219">
         <v>1</v>
@@ -18217,7 +18226,7 @@
         <v>1217</v>
       </c>
       <c r="B1220" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C1220">
         <v>1</v>
@@ -18228,7 +18237,7 @@
         <v>1218</v>
       </c>
       <c r="B1221" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C1221">
         <v>1</v>
@@ -18239,7 +18248,7 @@
         <v>1219</v>
       </c>
       <c r="B1222" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C1222">
         <v>1</v>
@@ -18250,7 +18259,7 @@
         <v>1220</v>
       </c>
       <c r="B1223" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C1223">
         <v>1</v>
@@ -18261,7 +18270,7 @@
         <v>1221</v>
       </c>
       <c r="B1224" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C1224">
         <v>1</v>
@@ -18272,7 +18281,7 @@
         <v>1222</v>
       </c>
       <c r="B1225" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C1225">
         <v>1</v>
@@ -18283,7 +18292,7 @@
         <v>1223</v>
       </c>
       <c r="B1226" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C1226">
         <v>1</v>
@@ -18294,7 +18303,7 @@
         <v>1224</v>
       </c>
       <c r="B1227" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C1227">
         <v>1</v>
@@ -18305,7 +18314,7 @@
         <v>1225</v>
       </c>
       <c r="B1228" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C1228">
         <v>1</v>
@@ -18316,7 +18325,7 @@
         <v>1226</v>
       </c>
       <c r="B1229" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C1229">
         <v>1</v>
@@ -18327,7 +18336,7 @@
         <v>1227</v>
       </c>
       <c r="B1230" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C1230">
         <v>1</v>
@@ -18338,7 +18347,7 @@
         <v>1228</v>
       </c>
       <c r="B1231" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C1231">
         <v>1</v>
@@ -18349,7 +18358,7 @@
         <v>1229</v>
       </c>
       <c r="B1232" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C1232">
         <v>1</v>
@@ -18360,7 +18369,7 @@
         <v>1230</v>
       </c>
       <c r="B1233" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C1233">
         <v>1</v>
@@ -18371,7 +18380,7 @@
         <v>1231</v>
       </c>
       <c r="B1234" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C1234">
         <v>1</v>
@@ -18382,7 +18391,7 @@
         <v>1232</v>
       </c>
       <c r="B1235" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C1235">
         <v>1</v>
@@ -18393,7 +18402,7 @@
         <v>1233</v>
       </c>
       <c r="B1236" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C1236">
         <v>1</v>
@@ -18404,7 +18413,7 @@
         <v>1234</v>
       </c>
       <c r="B1237" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C1237">
         <v>1</v>
@@ -18415,7 +18424,7 @@
         <v>1235</v>
       </c>
       <c r="B1238" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C1238">
         <v>1</v>
@@ -18426,7 +18435,7 @@
         <v>1236</v>
       </c>
       <c r="B1239" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C1239">
         <v>1</v>
@@ -18437,7 +18446,7 @@
         <v>1237</v>
       </c>
       <c r="B1240" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C1240">
         <v>1</v>
@@ -18448,7 +18457,7 @@
         <v>1238</v>
       </c>
       <c r="B1241" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C1241">
         <v>1</v>
@@ -18459,7 +18468,7 @@
         <v>1239</v>
       </c>
       <c r="B1242" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C1242">
         <v>1</v>
@@ -18470,7 +18479,7 @@
         <v>1240</v>
       </c>
       <c r="B1243" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C1243">
         <v>1</v>
@@ -18481,7 +18490,7 @@
         <v>1241</v>
       </c>
       <c r="B1244" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C1244">
         <v>1</v>
@@ -18492,7 +18501,7 @@
         <v>1242</v>
       </c>
       <c r="B1245" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C1245">
         <v>1</v>
@@ -18503,7 +18512,7 @@
         <v>1243</v>
       </c>
       <c r="B1246" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C1246">
         <v>1</v>
@@ -18514,7 +18523,7 @@
         <v>1244</v>
       </c>
       <c r="B1247" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C1247">
         <v>1</v>
@@ -18525,7 +18534,7 @@
         <v>1245</v>
       </c>
       <c r="B1248" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C1248">
         <v>1</v>
@@ -18536,7 +18545,7 @@
         <v>1246</v>
       </c>
       <c r="B1249" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C1249">
         <v>1</v>
@@ -18547,7 +18556,7 @@
         <v>1247</v>
       </c>
       <c r="B1250" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C1250">
         <v>1</v>
@@ -18558,7 +18567,7 @@
         <v>1248</v>
       </c>
       <c r="B1251" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C1251">
         <v>1</v>
@@ -18569,7 +18578,7 @@
         <v>1249</v>
       </c>
       <c r="B1252" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C1252">
         <v>1</v>
@@ -18580,7 +18589,7 @@
         <v>1250</v>
       </c>
       <c r="B1253" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C1253">
         <v>1</v>
@@ -18591,7 +18600,7 @@
         <v>1251</v>
       </c>
       <c r="B1254" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C1254">
         <v>1</v>
@@ -18602,7 +18611,7 @@
         <v>1252</v>
       </c>
       <c r="B1255" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C1255">
         <v>1</v>
@@ -18613,7 +18622,7 @@
         <v>1253</v>
       </c>
       <c r="B1256" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C1256">
         <v>1</v>
@@ -18624,7 +18633,7 @@
         <v>1254</v>
       </c>
       <c r="B1257" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C1257">
         <v>1</v>
@@ -18635,7 +18644,7 @@
         <v>1255</v>
       </c>
       <c r="B1258" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1258">
         <v>1</v>
@@ -18646,7 +18655,7 @@
         <v>1256</v>
       </c>
       <c r="B1259" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1259">
         <v>1</v>
@@ -18657,7 +18666,7 @@
         <v>1257</v>
       </c>
       <c r="B1260" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1260">
         <v>1</v>
@@ -18668,7 +18677,7 @@
         <v>1258</v>
       </c>
       <c r="B1261" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1261">
         <v>1</v>
@@ -18679,7 +18688,7 @@
         <v>1259</v>
       </c>
       <c r="B1262" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1262">
         <v>1</v>
@@ -18690,7 +18699,7 @@
         <v>1260</v>
       </c>
       <c r="B1263" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C1263">
         <v>1</v>
@@ -18701,7 +18710,7 @@
         <v>1261</v>
       </c>
       <c r="B1264" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C1264">
         <v>1</v>
@@ -18712,7 +18721,7 @@
         <v>1262</v>
       </c>
       <c r="B1265" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1265">
         <v>1</v>
@@ -18723,7 +18732,7 @@
         <v>1263</v>
       </c>
       <c r="B1266" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C1266">
         <v>1</v>
@@ -18734,7 +18743,7 @@
         <v>1264</v>
       </c>
       <c r="B1267" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C1267">
         <v>1</v>
@@ -18745,7 +18754,7 @@
         <v>1265</v>
       </c>
       <c r="B1268" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C1268">
         <v>1</v>
@@ -18756,7 +18765,7 @@
         <v>1266</v>
       </c>
       <c r="B1269" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C1269">
         <v>1</v>
@@ -18767,7 +18776,7 @@
         <v>1267</v>
       </c>
       <c r="B1270" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C1270">
         <v>1</v>
@@ -18778,7 +18787,7 @@
         <v>1268</v>
       </c>
       <c r="B1271" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C1271">
         <v>1</v>
@@ -18789,7 +18798,7 @@
         <v>1269</v>
       </c>
       <c r="B1272" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C1272">
         <v>1</v>
@@ -18800,7 +18809,7 @@
         <v>1270</v>
       </c>
       <c r="B1273" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C1273">
         <v>1</v>
@@ -18811,7 +18820,7 @@
         <v>1271</v>
       </c>
       <c r="B1274" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C1274">
         <v>1</v>
@@ -18822,7 +18831,7 @@
         <v>1272</v>
       </c>
       <c r="B1275" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C1275">
         <v>1</v>
@@ -18833,7 +18842,7 @@
         <v>1273</v>
       </c>
       <c r="B1276" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C1276">
         <v>1</v>
@@ -18844,7 +18853,7 @@
         <v>1274</v>
       </c>
       <c r="B1277" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C1277">
         <v>1</v>
@@ -18855,7 +18864,7 @@
         <v>1275</v>
       </c>
       <c r="B1278" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C1278">
         <v>1</v>
@@ -18866,7 +18875,7 @@
         <v>1276</v>
       </c>
       <c r="B1279" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C1279">
         <v>1</v>
@@ -18877,7 +18886,7 @@
         <v>1277</v>
       </c>
       <c r="B1280" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C1280">
         <v>1</v>
@@ -18888,7 +18897,7 @@
         <v>1278</v>
       </c>
       <c r="B1281" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C1281">
         <v>1</v>
@@ -18899,7 +18908,7 @@
         <v>1279</v>
       </c>
       <c r="B1282" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C1282">
         <v>1</v>
@@ -18910,7 +18919,7 @@
         <v>1280</v>
       </c>
       <c r="B1283" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C1283">
         <v>1</v>
@@ -18921,7 +18930,7 @@
         <v>1281</v>
       </c>
       <c r="B1284" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C1284">
         <v>1</v>
@@ -18932,7 +18941,7 @@
         <v>1282</v>
       </c>
       <c r="B1285" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C1285">
         <v>1</v>
@@ -18943,7 +18952,7 @@
         <v>1283</v>
       </c>
       <c r="B1286" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C1286">
         <v>1</v>
@@ -18954,7 +18963,7 @@
         <v>1284</v>
       </c>
       <c r="B1287" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C1287">
         <v>1</v>
@@ -18965,7 +18974,7 @@
         <v>1285</v>
       </c>
       <c r="B1288" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C1288">
         <v>1</v>
@@ -18976,7 +18985,7 @@
         <v>1286</v>
       </c>
       <c r="B1289" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C1289">
         <v>1</v>
@@ -18987,7 +18996,7 @@
         <v>1287</v>
       </c>
       <c r="B1290" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1290">
         <v>1</v>
@@ -18998,7 +19007,7 @@
         <v>1288</v>
       </c>
       <c r="B1291" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1291">
         <v>1</v>
@@ -19009,7 +19018,7 @@
         <v>1289</v>
       </c>
       <c r="B1292" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1292">
         <v>1</v>
@@ -19020,7 +19029,7 @@
         <v>1290</v>
       </c>
       <c r="B1293" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C1293">
         <v>1</v>
@@ -19031,7 +19040,7 @@
         <v>1291</v>
       </c>
       <c r="B1294" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C1294">
         <v>1</v>
@@ -19042,7 +19051,7 @@
         <v>1292</v>
       </c>
       <c r="B1295" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C1295">
         <v>1</v>
@@ -19053,7 +19062,7 @@
         <v>1293</v>
       </c>
       <c r="B1296" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C1296">
         <v>1</v>
@@ -19064,7 +19073,7 @@
         <v>1294</v>
       </c>
       <c r="B1297" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C1297">
         <v>1</v>
@@ -19075,7 +19084,7 @@
         <v>1295</v>
       </c>
       <c r="B1298" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C1298">
         <v>1</v>
@@ -19086,7 +19095,7 @@
         <v>1296</v>
       </c>
       <c r="B1299" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C1299">
         <v>1</v>
@@ -19097,7 +19106,7 @@
         <v>1297</v>
       </c>
       <c r="B1300" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C1300">
         <v>1</v>
@@ -19108,7 +19117,7 @@
         <v>1298</v>
       </c>
       <c r="B1301" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C1301">
         <v>1</v>
@@ -19119,7 +19128,7 @@
         <v>1299</v>
       </c>
       <c r="B1302" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C1302">
         <v>1</v>
@@ -19130,7 +19139,7 @@
         <v>1300</v>
       </c>
       <c r="B1303" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C1303">
         <v>1</v>
@@ -19141,7 +19150,7 @@
         <v>1301</v>
       </c>
       <c r="B1304" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C1304">
         <v>1</v>
@@ -19152,7 +19161,7 @@
         <v>1302</v>
       </c>
       <c r="B1305" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C1305">
         <v>1</v>
@@ -19163,7 +19172,7 @@
         <v>1303</v>
       </c>
       <c r="B1306" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C1306">
         <v>1</v>
@@ -19174,7 +19183,7 @@
         <v>1304</v>
       </c>
       <c r="B1307" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C1307">
         <v>1</v>
@@ -19185,7 +19194,7 @@
         <v>1305</v>
       </c>
       <c r="B1308" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C1308">
         <v>1</v>
@@ -19196,7 +19205,7 @@
         <v>1306</v>
       </c>
       <c r="B1309" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C1309">
         <v>1</v>
@@ -19207,7 +19216,7 @@
         <v>1307</v>
       </c>
       <c r="B1310" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C1310">
         <v>1</v>
@@ -19218,7 +19227,7 @@
         <v>1308</v>
       </c>
       <c r="B1311" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C1311">
         <v>1</v>
@@ -19229,7 +19238,7 @@
         <v>1309</v>
       </c>
       <c r="B1312" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C1312">
         <v>1</v>
@@ -19240,7 +19249,7 @@
         <v>1310</v>
       </c>
       <c r="B1313" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C1313">
         <v>1</v>
@@ -19251,7 +19260,7 @@
         <v>1311</v>
       </c>
       <c r="B1314" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C1314">
         <v>1</v>
@@ -19262,7 +19271,7 @@
         <v>1312</v>
       </c>
       <c r="B1315" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C1315">
         <v>1</v>
@@ -19273,7 +19282,7 @@
         <v>1313</v>
       </c>
       <c r="B1316" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C1316">
         <v>1</v>
@@ -19284,7 +19293,7 @@
         <v>1314</v>
       </c>
       <c r="B1317" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C1317">
         <v>1</v>
@@ -19295,7 +19304,7 @@
         <v>1315</v>
       </c>
       <c r="B1318" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C1318">
         <v>1</v>
@@ -19306,7 +19315,7 @@
         <v>1316</v>
       </c>
       <c r="B1319" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C1319">
         <v>1</v>
@@ -19317,7 +19326,7 @@
         <v>1317</v>
       </c>
       <c r="B1320" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C1320">
         <v>1</v>
@@ -19328,7 +19337,7 @@
         <v>1318</v>
       </c>
       <c r="B1321" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C1321">
         <v>1</v>
@@ -19339,7 +19348,7 @@
         <v>1319</v>
       </c>
       <c r="B1322" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C1322">
         <v>1</v>
@@ -19350,7 +19359,7 @@
         <v>1320</v>
       </c>
       <c r="B1323" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C1323">
         <v>1</v>
@@ -19361,7 +19370,7 @@
         <v>1321</v>
       </c>
       <c r="B1324" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C1324">
         <v>1</v>
@@ -19372,7 +19381,7 @@
         <v>1322</v>
       </c>
       <c r="B1325" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C1325">
         <v>1</v>
@@ -19383,7 +19392,7 @@
         <v>1323</v>
       </c>
       <c r="B1326" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C1326">
         <v>1</v>
@@ -19394,7 +19403,7 @@
         <v>1324</v>
       </c>
       <c r="B1327" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C1327">
         <v>1</v>
@@ -19405,7 +19414,7 @@
         <v>1325</v>
       </c>
       <c r="B1328" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C1328">
         <v>1</v>
@@ -19416,7 +19425,7 @@
         <v>1326</v>
       </c>
       <c r="B1329" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C1329">
         <v>1</v>
@@ -19427,7 +19436,7 @@
         <v>1327</v>
       </c>
       <c r="B1330" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C1330">
         <v>1</v>
@@ -19438,7 +19447,7 @@
         <v>1328</v>
       </c>
       <c r="B1331" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C1331">
         <v>1</v>
@@ -19449,7 +19458,7 @@
         <v>1329</v>
       </c>
       <c r="B1332" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C1332">
         <v>1</v>
@@ -19460,7 +19469,7 @@
         <v>1330</v>
       </c>
       <c r="B1333" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C1333">
         <v>1</v>
@@ -19471,7 +19480,7 @@
         <v>1331</v>
       </c>
       <c r="B1334" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C1334">
         <v>1</v>
@@ -19482,7 +19491,7 @@
         <v>1332</v>
       </c>
       <c r="B1335" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C1335">
         <v>1</v>
@@ -19493,7 +19502,7 @@
         <v>1333</v>
       </c>
       <c r="B1336" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C1336">
         <v>1</v>
@@ -19504,7 +19513,7 @@
         <v>1334</v>
       </c>
       <c r="B1337" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C1337">
         <v>1</v>
@@ -19515,7 +19524,7 @@
         <v>1335</v>
       </c>
       <c r="B1338" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C1338">
         <v>1</v>
@@ -19526,7 +19535,7 @@
         <v>1336</v>
       </c>
       <c r="B1339" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C1339">
         <v>1</v>
@@ -19537,7 +19546,7 @@
         <v>1337</v>
       </c>
       <c r="B1340" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C1340">
         <v>1</v>
@@ -19548,7 +19557,7 @@
         <v>1338</v>
       </c>
       <c r="B1341" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C1341">
         <v>1</v>
@@ -19559,7 +19568,7 @@
         <v>1339</v>
       </c>
       <c r="B1342" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C1342">
         <v>1</v>
@@ -19570,7 +19579,7 @@
         <v>1340</v>
       </c>
       <c r="B1343" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C1343">
         <v>1</v>
@@ -19581,7 +19590,7 @@
         <v>1341</v>
       </c>
       <c r="B1344" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C1344">
         <v>1</v>
@@ -19592,7 +19601,7 @@
         <v>1342</v>
       </c>
       <c r="B1345" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C1345">
         <v>1</v>
@@ -19603,7 +19612,7 @@
         <v>1343</v>
       </c>
       <c r="B1346" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C1346">
         <v>1</v>
@@ -19614,7 +19623,7 @@
         <v>1344</v>
       </c>
       <c r="B1347" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C1347">
         <v>1</v>
@@ -19625,7 +19634,7 @@
         <v>1345</v>
       </c>
       <c r="B1348" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C1348">
         <v>1</v>
@@ -19636,7 +19645,7 @@
         <v>1346</v>
       </c>
       <c r="B1349" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C1349">
         <v>1</v>
@@ -19647,7 +19656,7 @@
         <v>1347</v>
       </c>
       <c r="B1350" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C1350">
         <v>1</v>
@@ -19658,7 +19667,7 @@
         <v>1348</v>
       </c>
       <c r="B1351" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C1351">
         <v>1</v>
@@ -19669,7 +19678,7 @@
         <v>1349</v>
       </c>
       <c r="B1352" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C1352">
         <v>1</v>
@@ -19680,7 +19689,7 @@
         <v>1350</v>
       </c>
       <c r="B1353" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C1353">
         <v>1</v>
@@ -19691,7 +19700,7 @@
         <v>1351</v>
       </c>
       <c r="B1354" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C1354">
         <v>1</v>
@@ -19702,7 +19711,7 @@
         <v>1352</v>
       </c>
       <c r="B1355" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C1355">
         <v>1</v>
@@ -19713,7 +19722,7 @@
         <v>1353</v>
       </c>
       <c r="B1356" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C1356">
         <v>1</v>
@@ -19724,7 +19733,7 @@
         <v>1354</v>
       </c>
       <c r="B1357" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C1357">
         <v>1</v>
@@ -19735,7 +19744,7 @@
         <v>1355</v>
       </c>
       <c r="B1358" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C1358">
         <v>1</v>
@@ -19746,7 +19755,7 @@
         <v>1356</v>
       </c>
       <c r="B1359" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1359">
         <v>1</v>
@@ -19757,7 +19766,7 @@
         <v>1357</v>
       </c>
       <c r="B1360" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C1360">
         <v>1</v>
@@ -19768,7 +19777,7 @@
         <v>1358</v>
       </c>
       <c r="B1361" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C1361">
         <v>1</v>
@@ -19779,7 +19788,7 @@
         <v>1359</v>
       </c>
       <c r="B1362" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C1362">
         <v>1</v>
@@ -19790,7 +19799,7 @@
         <v>1360</v>
       </c>
       <c r="B1363" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C1363">
         <v>1</v>
@@ -19801,7 +19810,7 @@
         <v>1361</v>
       </c>
       <c r="B1364" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C1364">
         <v>1</v>
@@ -19812,7 +19821,7 @@
         <v>1362</v>
       </c>
       <c r="B1365" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C1365">
         <v>1</v>
@@ -19823,7 +19832,7 @@
         <v>1363</v>
       </c>
       <c r="B1366" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C1366">
         <v>1</v>
@@ -19834,7 +19843,7 @@
         <v>1364</v>
       </c>
       <c r="B1367" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C1367">
         <v>1</v>
@@ -19845,7 +19854,7 @@
         <v>1365</v>
       </c>
       <c r="B1368" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C1368">
         <v>1</v>
@@ -19856,7 +19865,7 @@
         <v>1366</v>
       </c>
       <c r="B1369" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C1369">
         <v>1</v>
@@ -19867,7 +19876,7 @@
         <v>1367</v>
       </c>
       <c r="B1370" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C1370">
         <v>1</v>
@@ -19878,7 +19887,7 @@
         <v>1368</v>
       </c>
       <c r="B1371" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C1371">
         <v>1</v>
@@ -19889,7 +19898,7 @@
         <v>1369</v>
       </c>
       <c r="B1372" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C1372">
         <v>1</v>
@@ -19900,7 +19909,7 @@
         <v>1370</v>
       </c>
       <c r="B1373" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C1373">
         <v>1</v>
@@ -19911,7 +19920,7 @@
         <v>1371</v>
       </c>
       <c r="B1374" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C1374">
         <v>1</v>
@@ -19922,7 +19931,7 @@
         <v>1372</v>
       </c>
       <c r="B1375" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C1375">
         <v>1</v>
@@ -19933,7 +19942,7 @@
         <v>1373</v>
       </c>
       <c r="B1376" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C1376">
         <v>1</v>
@@ -19944,7 +19953,7 @@
         <v>1374</v>
       </c>
       <c r="B1377" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C1377">
         <v>1</v>
@@ -19955,7 +19964,7 @@
         <v>1375</v>
       </c>
       <c r="B1378" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C1378">
         <v>1</v>
@@ -19966,7 +19975,7 @@
         <v>1376</v>
       </c>
       <c r="B1379" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C1379">
         <v>1</v>
@@ -19977,7 +19986,7 @@
         <v>1377</v>
       </c>
       <c r="B1380" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C1380">
         <v>1</v>
@@ -19988,7 +19997,7 @@
         <v>1378</v>
       </c>
       <c r="B1381" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C1381">
         <v>1</v>
@@ -19999,7 +20008,7 @@
         <v>1379</v>
       </c>
       <c r="B1382" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C1382">
         <v>1</v>
@@ -20010,7 +20019,7 @@
         <v>1380</v>
       </c>
       <c r="B1383" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C1383">
         <v>1</v>
@@ -20021,7 +20030,7 @@
         <v>1381</v>
       </c>
       <c r="B1384" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C1384">
         <v>1</v>
@@ -20032,7 +20041,7 @@
         <v>1382</v>
       </c>
       <c r="B1385" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C1385">
         <v>1</v>
@@ -20043,7 +20052,7 @@
         <v>1383</v>
       </c>
       <c r="B1386" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C1386">
         <v>1</v>
@@ -20054,7 +20063,7 @@
         <v>1384</v>
       </c>
       <c r="B1387" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C1387">
         <v>1</v>
@@ -20065,7 +20074,7 @@
         <v>1385</v>
       </c>
       <c r="B1388" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C1388">
         <v>1</v>
@@ -20076,7 +20085,7 @@
         <v>1386</v>
       </c>
       <c r="B1389" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C1389">
         <v>1</v>
@@ -20087,7 +20096,7 @@
         <v>1387</v>
       </c>
       <c r="B1390" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C1390">
         <v>1</v>
@@ -20098,7 +20107,7 @@
         <v>1388</v>
       </c>
       <c r="B1391" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C1391">
         <v>1</v>
@@ -20109,7 +20118,7 @@
         <v>1389</v>
       </c>
       <c r="B1392" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C1392">
         <v>1</v>
@@ -20120,7 +20129,7 @@
         <v>1390</v>
       </c>
       <c r="B1393" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C1393">
         <v>1</v>
@@ -20131,7 +20140,7 @@
         <v>1391</v>
       </c>
       <c r="B1394" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C1394">
         <v>1</v>
@@ -20142,7 +20151,7 @@
         <v>1392</v>
       </c>
       <c r="B1395" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C1395">
         <v>1</v>
@@ -20153,7 +20162,7 @@
         <v>1393</v>
       </c>
       <c r="B1396" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C1396">
         <v>1</v>
@@ -20164,7 +20173,7 @@
         <v>1394</v>
       </c>
       <c r="B1397" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C1397">
         <v>1</v>
@@ -20175,7 +20184,7 @@
         <v>1395</v>
       </c>
       <c r="B1398" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C1398">
         <v>1</v>
@@ -20186,7 +20195,7 @@
         <v>1396</v>
       </c>
       <c r="B1399" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C1399">
         <v>1</v>
@@ -20197,7 +20206,7 @@
         <v>1397</v>
       </c>
       <c r="B1400" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C1400">
         <v>1</v>
@@ -20208,7 +20217,7 @@
         <v>1398</v>
       </c>
       <c r="B1401" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C1401">
         <v>1</v>
@@ -20219,7 +20228,7 @@
         <v>1399</v>
       </c>
       <c r="B1402" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C1402">
         <v>1</v>
@@ -20230,7 +20239,7 @@
         <v>1400</v>
       </c>
       <c r="B1403" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C1403">
         <v>1</v>
@@ -20241,7 +20250,7 @@
         <v>1401</v>
       </c>
       <c r="B1404" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C1404">
         <v>1</v>
@@ -20252,7 +20261,7 @@
         <v>1402</v>
       </c>
       <c r="B1405" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C1405">
         <v>1</v>
@@ -20263,7 +20272,7 @@
         <v>1403</v>
       </c>
       <c r="B1406" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C1406">
         <v>1</v>
@@ -20274,7 +20283,7 @@
         <v>1404</v>
       </c>
       <c r="B1407" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C1407">
         <v>1</v>
@@ -20285,7 +20294,7 @@
         <v>1405</v>
       </c>
       <c r="B1408" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C1408">
         <v>1</v>
@@ -20296,7 +20305,7 @@
         <v>1406</v>
       </c>
       <c r="B1409" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C1409">
         <v>1</v>
@@ -20307,7 +20316,7 @@
         <v>1407</v>
       </c>
       <c r="B1410" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C1410">
         <v>1</v>
@@ -20318,7 +20327,7 @@
         <v>1408</v>
       </c>
       <c r="B1411" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C1411">
         <v>1</v>
@@ -20329,7 +20338,7 @@
         <v>1409</v>
       </c>
       <c r="B1412" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C1412">
         <v>1</v>
@@ -20340,7 +20349,7 @@
         <v>1410</v>
       </c>
       <c r="B1413" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C1413">
         <v>1</v>
@@ -20351,7 +20360,7 @@
         <v>1411</v>
       </c>
       <c r="B1414" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C1414">
         <v>1</v>
@@ -20362,7 +20371,7 @@
         <v>1412</v>
       </c>
       <c r="B1415" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C1415">
         <v>1</v>
@@ -20373,7 +20382,7 @@
         <v>1413</v>
       </c>
       <c r="B1416" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C1416">
         <v>1</v>
@@ -20384,7 +20393,7 @@
         <v>1414</v>
       </c>
       <c r="B1417" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C1417">
         <v>1</v>
@@ -20395,7 +20404,7 @@
         <v>1415</v>
       </c>
       <c r="B1418" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C1418">
         <v>1</v>
@@ -20406,7 +20415,7 @@
         <v>1416</v>
       </c>
       <c r="B1419" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C1419">
         <v>1</v>
@@ -20417,7 +20426,7 @@
         <v>1417</v>
       </c>
       <c r="B1420" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C1420">
         <v>1</v>
@@ -20428,7 +20437,7 @@
         <v>1418</v>
       </c>
       <c r="B1421" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C1421">
         <v>1</v>
@@ -20439,7 +20448,7 @@
         <v>1419</v>
       </c>
       <c r="B1422" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C1422">
         <v>1</v>
@@ -20450,7 +20459,7 @@
         <v>1420</v>
       </c>
       <c r="B1423" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C1423">
         <v>1</v>
@@ -20461,7 +20470,7 @@
         <v>1421</v>
       </c>
       <c r="B1424" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C1424">
         <v>1</v>
@@ -20472,7 +20481,7 @@
         <v>1422</v>
       </c>
       <c r="B1425" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C1425">
         <v>1</v>
@@ -20483,7 +20492,7 @@
         <v>1423</v>
       </c>
       <c r="B1426" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C1426">
         <v>1</v>
@@ -20494,7 +20503,7 @@
         <v>1424</v>
       </c>
       <c r="B1427" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C1427">
         <v>1</v>
@@ -20505,7 +20514,7 @@
         <v>1425</v>
       </c>
       <c r="B1428" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C1428">
         <v>1</v>
@@ -20516,7 +20525,7 @@
         <v>1426</v>
       </c>
       <c r="B1429" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C1429">
         <v>1</v>
@@ -20527,7 +20536,7 @@
         <v>1427</v>
       </c>
       <c r="B1430" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C1430">
         <v>1</v>
@@ -20538,7 +20547,7 @@
         <v>1428</v>
       </c>
       <c r="B1431" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C1431">
         <v>1</v>
@@ -20549,7 +20558,7 @@
         <v>1429</v>
       </c>
       <c r="B1432" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C1432">
         <v>1</v>
@@ -20560,7 +20569,7 @@
         <v>1430</v>
       </c>
       <c r="B1433" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C1433">
         <v>1</v>
@@ -20571,7 +20580,7 @@
         <v>1431</v>
       </c>
       <c r="B1434" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C1434">
         <v>1</v>
@@ -20582,7 +20591,7 @@
         <v>1432</v>
       </c>
       <c r="B1435" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C1435">
         <v>1</v>
@@ -20593,7 +20602,7 @@
         <v>1433</v>
       </c>
       <c r="B1436" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C1436">
         <v>1</v>
@@ -20604,7 +20613,7 @@
         <v>1434</v>
       </c>
       <c r="B1437" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C1437">
         <v>1</v>
@@ -20615,7 +20624,7 @@
         <v>1435</v>
       </c>
       <c r="B1438" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C1438">
         <v>1</v>
@@ -20626,7 +20635,7 @@
         <v>1436</v>
       </c>
       <c r="B1439" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C1439">
         <v>1</v>
@@ -20637,7 +20646,7 @@
         <v>1437</v>
       </c>
       <c r="B1440" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C1440">
         <v>1</v>
@@ -20648,7 +20657,7 @@
         <v>1438</v>
       </c>
       <c r="B1441" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C1441">
         <v>1</v>
@@ -20659,7 +20668,7 @@
         <v>1439</v>
       </c>
       <c r="B1442" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C1442">
         <v>1</v>
@@ -20670,7 +20679,7 @@
         <v>1440</v>
       </c>
       <c r="B1443" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C1443">
         <v>1</v>
@@ -20681,7 +20690,7 @@
         <v>1441</v>
       </c>
       <c r="B1444" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C1444">
         <v>1</v>
@@ -20692,7 +20701,7 @@
         <v>1442</v>
       </c>
       <c r="B1445" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C1445">
         <v>1</v>
@@ -20703,7 +20712,7 @@
         <v>1443</v>
       </c>
       <c r="B1446" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C1446">
         <v>1</v>
@@ -20714,7 +20723,7 @@
         <v>1444</v>
       </c>
       <c r="B1447" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C1447">
         <v>1</v>
@@ -20725,7 +20734,7 @@
         <v>1445</v>
       </c>
       <c r="B1448" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C1448">
         <v>1</v>
@@ -20736,7 +20745,7 @@
         <v>1446</v>
       </c>
       <c r="B1449" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C1449">
         <v>1</v>
@@ -20747,7 +20756,7 @@
         <v>1447</v>
       </c>
       <c r="B1450" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C1450">
         <v>1</v>
@@ -20758,9 +20767,31 @@
         <v>1448</v>
       </c>
       <c r="B1451" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C1451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1452">
+        <v>1449</v>
+      </c>
+      <c r="B1452" t="s">
         <v>1450</v>
       </c>
-      <c r="C1451">
+      <c r="C1452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1453">
+        <v>1450</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C1453">
         <v>1</v>
       </c>
     </row>

--- a/sg02/Assets/Resources/Config/Excel/Animations.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Animations.xlsx
@@ -4423,9 +4423,6 @@
     <t>Animations/TROOP/FLAG26</t>
   </si>
   <si>
-    <t>Animations/TROOP/FLAG27</t>
-  </si>
-  <si>
     <t>Animations/TROOP/SOL000</t>
   </si>
   <si>
@@ -4462,6 +4459,10 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4882,8 +4883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A1427" workbookViewId="0">
+      <selection activeCell="A1461" sqref="A1461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4903,7 +4904,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4917,7 +4918,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4931,7 +4932,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -24976,7 +24977,7 @@
         <v>1</v>
       </c>
       <c r="C1435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1435">
         <v>0</v>
@@ -24990,7 +24991,7 @@
         <v>1</v>
       </c>
       <c r="C1436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1436">
         <v>0</v>
@@ -25004,7 +25005,7 @@
         <v>1</v>
       </c>
       <c r="C1437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1437">
         <v>0</v>
@@ -25018,7 +25019,7 @@
         <v>1</v>
       </c>
       <c r="C1438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1438">
         <v>0</v>
@@ -25032,7 +25033,7 @@
         <v>1</v>
       </c>
       <c r="C1439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1439">
         <v>0</v>
@@ -25046,7 +25047,7 @@
         <v>1</v>
       </c>
       <c r="C1440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1440">
         <v>0</v>
@@ -25060,7 +25061,7 @@
         <v>1</v>
       </c>
       <c r="C1441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1441">
         <v>0</v>
@@ -25074,7 +25075,7 @@
         <v>1</v>
       </c>
       <c r="C1442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1442">
         <v>0</v>
@@ -25088,7 +25089,7 @@
         <v>1</v>
       </c>
       <c r="C1443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1443">
         <v>0</v>
@@ -25102,7 +25103,7 @@
         <v>1</v>
       </c>
       <c r="C1444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1444">
         <v>0</v>
@@ -25116,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="C1445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1445">
         <v>0</v>
@@ -25130,7 +25131,7 @@
         <v>1</v>
       </c>
       <c r="C1446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1446">
         <v>0</v>
@@ -25144,7 +25145,7 @@
         <v>1</v>
       </c>
       <c r="C1447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1447">
         <v>0</v>
@@ -25158,7 +25159,7 @@
         <v>1</v>
       </c>
       <c r="C1448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1448">
         <v>0</v>
@@ -25172,7 +25173,7 @@
         <v>1</v>
       </c>
       <c r="C1449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1449">
         <v>0</v>
@@ -25186,7 +25187,7 @@
         <v>1</v>
       </c>
       <c r="C1450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1450">
         <v>0</v>
@@ -25200,7 +25201,7 @@
         <v>1</v>
       </c>
       <c r="C1451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1451">
         <v>0</v>
@@ -25214,7 +25215,7 @@
         <v>1</v>
       </c>
       <c r="C1452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1452">
         <v>0</v>
@@ -25228,7 +25229,7 @@
         <v>1</v>
       </c>
       <c r="C1453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1453">
         <v>0</v>
@@ -25242,7 +25243,7 @@
         <v>1</v>
       </c>
       <c r="C1454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1454">
         <v>0</v>
@@ -25256,7 +25257,7 @@
         <v>1</v>
       </c>
       <c r="C1455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1455">
         <v>0</v>
@@ -25270,7 +25271,7 @@
         <v>1</v>
       </c>
       <c r="C1456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1456">
         <v>0</v>
@@ -25284,7 +25285,7 @@
         <v>1</v>
       </c>
       <c r="C1457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1457">
         <v>0</v>
@@ -25298,7 +25299,7 @@
         <v>1</v>
       </c>
       <c r="C1458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1458">
         <v>0</v>
@@ -25312,7 +25313,7 @@
         <v>1</v>
       </c>
       <c r="C1459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1459">
         <v>0</v>
@@ -25326,7 +25327,7 @@
         <v>1</v>
       </c>
       <c r="C1460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1460">
         <v>0</v>
@@ -25334,13 +25335,13 @@
     </row>
     <row r="1461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1461" t="s">
-        <v>1466</v>
+        <v>1478</v>
       </c>
       <c r="B1461">
         <v>1</v>
       </c>
       <c r="C1461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1461">
         <v>0</v>
@@ -25348,7 +25349,7 @@
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1462" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B1462">
         <v>1</v>
@@ -25362,7 +25363,7 @@
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1463" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B1463">
         <v>1</v>
@@ -25376,7 +25377,7 @@
     </row>
     <row r="1464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1464" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B1464">
         <v>1</v>
@@ -25390,7 +25391,7 @@
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1465" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B1465">
         <v>1</v>
@@ -25404,7 +25405,7 @@
     </row>
     <row r="1466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1466" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1466">
         <v>1</v>
@@ -25418,7 +25419,7 @@
     </row>
     <row r="1467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1467" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B1467">
         <v>1</v>
@@ -25432,7 +25433,7 @@
     </row>
     <row r="1468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1468" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B1468">
         <v>1</v>
@@ -25446,7 +25447,7 @@
     </row>
     <row r="1469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1469" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B1469">
         <v>1</v>
@@ -25460,7 +25461,7 @@
     </row>
     <row r="1470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1470" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B1470">
         <v>1</v>
